--- a/drafts/files/2025년_07월_03일_방화벽_정책_김지환.xlsx
+++ b/drafts/files/2025년_07월_03일_방화벽_정책_김지환.xlsx
@@ -442,10 +442,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="29" customWidth="1" min="2" max="2"/>
+    <col width="17" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
   </cols>
@@ -495,12 +495,12 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>15.23.58.213 , 10.10.10.5</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>192.168.0.1</t>
+          <t>192.168.201.5</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -510,7 +510,7 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>개발테스트</t>
+          <t>운영</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">

--- a/drafts/files/2025년_07월_03일_방화벽_정책_김지환.xlsx
+++ b/drafts/files/2025년_07월_03일_방화벽_정책_김지환.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +442,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
-    <col width="29" customWidth="1" min="2" max="2"/>
-    <col width="17" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
   </cols>
@@ -495,12 +495,12 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>15.23.58.213 , 10.10.10.5</t>
+          <t>10.0.0.1</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>192.168.201.5</t>
+          <t>192.168.2.1</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -510,7 +510,7 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>운영</t>
+          <t>개발테스트</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
@@ -519,6 +519,43 @@
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>서비스 종료 시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>10.0.0.2</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>192.168.2.2</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>개발테스트</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>허용</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>서비스 종료 시까지</t>
         </is>

--- a/drafts/files/2025년_07월_03일_방화벽_정책_김지환.xlsx
+++ b/drafts/files/2025년_07월_03일_방화벽_정책_김지환.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,8 +442,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
@@ -495,12 +495,12 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>0.0.0.1</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>192.168.2.1</t>
+          <t>10.0.0.2</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -519,43 +519,6 @@
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>서비스 종료 시까지</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>10.0.0.2</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>192.168.2.2</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>443</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>개발테스트</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>허용</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>서비스 종료 시까지</t>
         </is>

--- a/drafts/files/2025년_07월_03일_방화벽_정책_김지환.xlsx
+++ b/drafts/files/2025년_07월_03일_방화벽_정책_김지환.xlsx
@@ -442,8 +442,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="7" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
@@ -495,12 +495,12 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>0.0.0.1</t>
+          <t>10.0.0.5</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>10.0.0.2</t>
+          <t>192.168.5.1</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
